--- a/TAP_POM_Framework/data/TC0002.xlsx
+++ b/TAP_POM_Framework/data/TC0002.xlsx
@@ -48,13 +48,13 @@
     <t>Johnson</t>
   </si>
   <si>
-    <t>samuel1@tcomp.com</t>
-  </si>
-  <si>
     <t>TestingCompany1</t>
   </si>
   <si>
-    <t>https://www.testingcompany1.com</t>
+    <t>samuel5@tcomp.com</t>
+  </si>
+  <si>
+    <t>https://www.testingcompany5.com</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>32132132987</v>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -507,8 +507,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
